--- a/apiResponseData.xlsx
+++ b/apiResponseData.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="paymentData" sheetId="1" r:id="rId1"/>
     <sheet name="refundData" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="232">
   <si>
     <t>http://pay-api.testing.2dupay.com/scannedCode</t>
   </si>
@@ -2749,21 +2749,6 @@
       <t>"
 }</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "channel_type":"ALIPAY",
- "code":"SUCCESS",
- "msg":"SUCCESS",
- "out_refund_no":"R381682898336969280",
- "pay_type":"ALIPAY",
- "printType":2,
- "receipt":"Cs3Lv+698LbuOiAwLjAxCgo=",
- "refund_fee":1,
- "time":"2018-11-08 16:18:02",
- "user_order_no":"P381678882035038976"
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4364,21 +4349,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "channel_type":"WXPAY",
- "code":"SUCCESS",
- "msg":"SUCCESS",
- "out_refund_no":"R390652121701202624",
- "pay_type":"WXPAY",
- "printType":0,
- "receipt":"ycy7p8P7s8Y6IHNoMW0x19MKCs3Lv+698LbuOiAwLjAxCgo=",
- "refund_fee":1,
- "time":"2018-12-03 10:18:31",
- "user_order_no":"P390651831639881216"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>票据打印为：默认</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4426,21 +4396,6 @@
   </si>
   <si>
     <t>{
- "channel_type":"ALIPAY",
- "code":"SUCCESS",
- "msg":"SUCCESS",
- "out_refund_no":"R381682898336969280",
- "pay_type":"ALIPAY",
- "printType":2,
- "receipt":"Cs3Lv+698LbuOiAwLjAxCgo=",
- "refund_fee":1,
- "time":"2018-11-08 16:18:02",
- "user_order_no":"P381678882035038976"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
  "channel_type":"WXPAY",
  "code":"SUCCESS",
  "msg":"SUCCESS",
@@ -4601,12 +4556,42 @@
 票据打印方式为：追加</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>{
+ "channel_type":"WXPAY",
+ "code":"SUCCESS",
+ "msg":"SUCCESS",
+ "out_refund_no":"R390652121701202624",
+ "pay_type":"WXPAY",
+ "printType":0,
+ "receipt":"tqm1pbHgusU6IDQyMDAwMDAyNjkyMDE5MDIxNDA0NzcwNjM5MDUKzcu/7sqxvOQ6IDIwMTktMDItMTQgMTE6NTI6MTQKyeixuLHgusU6IDQxMTMxODA0MDAxMzA5OTkKvbvS18Dg0M06IM6i0MUKycy7p8P7s8Y6IMPFterS0cXkCgrNy7/uvfC27jogMC4wMQoK",
+ "refund_fee":1,
+ "time":"2018-12-03 10:18:31",
+ "user_order_no":"P390651831639881216"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "channel_type":"ALIPAY",
+ "code":"SUCCESS",
+ "msg":"SUCCESS",
+ "out_refund_no":"R381682898336969280",
+ "pay_type":"ALIPAY",
+ "printType":2,
+"receipt":"tqm1pbHgusU6IDQyMDAwMDAyNjkyMDE5MDIxNDA0NzcwNjM5MDUKzcu/7sqxvOQ6IDIwMTktMDItMTQgMTE6NTI6MTQKyeixuLHgusU6IDQxMTMxODA0MDAxMzA5OTkKvbvS18Dg0M06IM6i0MUKycy7p8P7s8Y6IMPFterS0cXkCgrNy7/uvfC27jogMC4wMQoK",
+ "refund_fee":1,
+ "time":"2018-11-08 16:18:02",
+ "user_order_no":"P381678882035038976"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5150,14 +5135,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="25.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
@@ -5172,7 +5157,7 @@
     <col min="11" max="16384" width="25.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="28.15" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>43</v>
       </c>
@@ -5204,7 +5189,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="76.5">
       <c r="A2" s="9" t="s">
         <v>97</v>
       </c>
@@ -5234,7 +5219,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="76.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="76.5">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -5260,15 +5245,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="76.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="76.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
       <c r="D4" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>6</v>
@@ -5286,7 +5271,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="76.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="76.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -5312,7 +5297,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="76.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="76.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="11"/>
@@ -5338,7 +5323,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="76.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="76.5">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
@@ -5364,7 +5349,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="51">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -5386,29 +5371,29 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="280.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="280.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>191</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="164.25" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="164.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
@@ -5434,7 +5419,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="164.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="164.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
@@ -5460,7 +5445,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="102">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11" t="s">
@@ -5488,7 +5473,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="102">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -5514,7 +5499,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="102">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -5540,7 +5525,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="102">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -5566,7 +5551,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="2" customFormat="1" ht="102">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -5592,27 +5577,27 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" ht="280.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" s="2" customFormat="1" ht="280.5">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="102">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
@@ -5638,7 +5623,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="102">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
@@ -5664,7 +5649,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="127.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="127.5">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
@@ -5690,7 +5675,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="102">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -5698,7 +5683,7 @@
         <v>110</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>6</v>
@@ -5716,15 +5701,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="102">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
       <c r="D22" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>6</v>
@@ -5742,15 +5727,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="102">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
       <c r="D23" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>6</v>
@@ -5768,15 +5753,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" s="2" customFormat="1" ht="127.5">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
       <c r="D24" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>6</v>
@@ -5794,27 +5779,27 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" ht="280.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" s="2" customFormat="1" ht="280.5">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="102">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -5840,7 +5825,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="102">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="11"/>
@@ -5866,7 +5851,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="102">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="11"/>
@@ -5892,7 +5877,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" s="2" customFormat="1" ht="102">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
@@ -5900,7 +5885,7 @@
         <v>82</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>6</v>
@@ -5918,15 +5903,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" s="2" customFormat="1" ht="102">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>6</v>
@@ -5938,15 +5923,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" s="2" customFormat="1" ht="89.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>6</v>
@@ -5958,7 +5943,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="120.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="120.6" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="11"/>
@@ -5984,7 +5969,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="102">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
@@ -5992,7 +5977,7 @@
         <v>50</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>6</v>
@@ -6010,15 +5995,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="102">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>6</v>
@@ -6030,15 +6015,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="89.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="89.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="11"/>
       <c r="D35" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>6</v>
@@ -6050,15 +6035,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" s="2" customFormat="1" ht="102">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>6</v>
@@ -6076,15 +6061,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" s="2" customFormat="1" ht="102">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="11"/>
       <c r="D37" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>6</v>
@@ -6102,35 +6087,35 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="2" customFormat="1" ht="280.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" s="2" customFormat="1" ht="280.5">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="114.75" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="114.75">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>171</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>6</v>
@@ -6148,15 +6133,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="114.75" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="114.75">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>6</v>
@@ -6174,7 +6159,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="114.75" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="114.75">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
@@ -6200,15 +6185,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" s="2" customFormat="1" ht="102">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>6</v>
@@ -6226,15 +6211,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="102">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="11"/>
       <c r="D43" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>6</v>
@@ -6252,15 +6237,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="102">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>6</v>
@@ -6278,15 +6263,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" s="2" customFormat="1" ht="102">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>6</v>
@@ -6304,27 +6289,27 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="2" customFormat="1" ht="280.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" s="2" customFormat="1" ht="280.5">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="11" t="s">
         <v>115</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="102">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
@@ -6350,7 +6335,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="102">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
@@ -6376,7 +6361,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="102">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="11" t="s">
@@ -6404,7 +6389,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" s="2" customFormat="1" ht="102">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="11"/>
@@ -6430,7 +6415,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" s="2" customFormat="1" ht="114.75">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="11"/>
@@ -6456,27 +6441,27 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="2" customFormat="1" ht="280.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" s="2" customFormat="1" ht="280.5">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="102">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="11"/>
@@ -6502,7 +6487,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" ht="102">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="11"/>
@@ -6528,7 +6513,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="102">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="11"/>
@@ -6554,15 +6539,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" s="2" customFormat="1" ht="102">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="11"/>
       <c r="D56" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>27</v>
@@ -6580,15 +6565,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="102">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="11"/>
       <c r="D57" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>27</v>
@@ -6606,15 +6591,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="102" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="102">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="11"/>
       <c r="D58" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>27</v>
@@ -6632,15 +6617,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" s="2" customFormat="1" ht="102">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="11"/>
       <c r="D59" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>27</v>
@@ -6658,100 +6643,100 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="2" customFormat="1" ht="280.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" s="2" customFormat="1" ht="280.5">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="D60" s="18" t="s">
-        <v>206</v>
-      </c>
       <c r="E60" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="2" customFormat="1" ht="280.5" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="2" customFormat="1" ht="280.5">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E61" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="2" customFormat="1" ht="280.5" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="2" customFormat="1" ht="280.5">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>201</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="2" customFormat="1" ht="267.75" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="2" customFormat="1" ht="267.75">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="21"/>
       <c r="D63" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="2" customFormat="1" ht="267.75" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="2" customFormat="1" ht="267.75">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="21"/>
       <c r="D64" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6768,11 +6753,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
@@ -6786,7 +6771,7 @@
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="27">
       <c r="A1" s="6" t="s">
         <v>43</v>
       </c>
@@ -6818,7 +6803,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="89.25">
       <c r="A2" s="9" t="s">
         <v>118</v>
       </c>
@@ -6830,7 +6815,7 @@
         <v>92</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>17</v>
@@ -6845,10 +6830,10 @@
         <v>73</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="89.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -6856,7 +6841,7 @@
         <v>93</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>17</v>
@@ -6871,10 +6856,10 @@
         <v>73</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -6882,7 +6867,7 @@
         <v>94</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>5</v>
@@ -6893,10 +6878,10 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="89.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11"/>
@@ -6904,7 +6889,7 @@
         <v>74</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>6</v>
@@ -6919,10 +6904,10 @@
         <v>75</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="11"/>
@@ -6930,7 +6915,7 @@
         <v>119</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>5</v>
@@ -6941,20 +6926,20 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>231</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>5</v>
@@ -6965,20 +6950,20 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="216.75" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="21" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>5</v>
@@ -6989,20 +6974,20 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="216.75" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>5</v>
@@ -7013,20 +6998,20 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="204" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>5</v>
@@ -7037,20 +7022,20 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="204" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>5</v>
@@ -7061,20 +7046,20 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="204" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="21" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>5</v>
@@ -7085,20 +7070,20 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="216.75" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="21" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>5</v>
@@ -7109,20 +7094,20 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="216.75" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="21" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>5</v>
@@ -7133,20 +7118,20 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="216.75" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>232</v>
-      </c>
       <c r="E15" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>5</v>
@@ -7157,18 +7142,18 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="178.5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
       <c r="D16" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>5</v>
@@ -7179,7 +7164,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/apiResponseData.xlsx
+++ b/apiResponseData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="paymentData" sheetId="1" r:id="rId1"/>
@@ -1748,53 +1748,6 @@
         <charset val="134"/>
       </rPr>
       <t>交易创建，等待买家付款</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"
-}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
- "code":"FAIL",
- "msg":"101 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>付款码无效，请重新扫码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">",
- "pp_trade_no":"9878174153",
- "printType":0,
- "sub_code":"AUTH_CODE_INVALID|FAIL",
- "sub_msg":"101 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>付款码无效，请重新扫码</t>
     </r>
     <r>
       <rPr>
@@ -4584,6 +4537,53 @@
  "time":"2018-11-08 16:18:02",
  "user_order_no":"P381678882035038976"
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+ "code":"FAIL",
+ "msg":"101 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>付款码无效，请重新扫码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">",
+ "pp_trade_no":"9878174153",
+ "printType":0,
+ "sub_code":"AUTH_CODE_INVALID|FAIL",
+ "sub_msg":"101 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>付款码无效，请重新扫码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+}</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5135,11 +5135,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.75" defaultRowHeight="13.5"/>
@@ -5250,10 +5250,10 @@
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
       <c r="D4" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>6</v>
@@ -5378,19 +5378,19 @@
         <v>46</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="164.25">
@@ -5584,17 +5584,17 @@
         <v>51</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="102">
@@ -5605,7 +5605,7 @@
         <v>47</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>6</v>
@@ -5631,7 +5631,7 @@
         <v>109</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>6</v>
@@ -5657,7 +5657,7 @@
         <v>49</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>6</v>
@@ -5683,7 +5683,7 @@
         <v>110</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>6</v>
@@ -5706,10 +5706,10 @@
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
       <c r="D22" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>6</v>
@@ -5732,10 +5732,10 @@
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
       <c r="D23" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>6</v>
@@ -5758,10 +5758,10 @@
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
       <c r="D24" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>6</v>
@@ -5786,17 +5786,17 @@
         <v>60</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="102">
@@ -5807,7 +5807,7 @@
         <v>111</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>6</v>
@@ -5833,7 +5833,7 @@
         <v>112</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>6</v>
@@ -5859,7 +5859,7 @@
         <v>61</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>6</v>
@@ -5885,7 +5885,7 @@
         <v>82</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>6</v>
@@ -5908,10 +5908,10 @@
       <c r="B30" s="9"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>6</v>
@@ -5928,10 +5928,10 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>6</v>
@@ -5951,7 +5951,7 @@
         <v>62</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>6</v>
@@ -5977,7 +5977,7 @@
         <v>50</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>6</v>
@@ -6000,10 +6000,10 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>6</v>
@@ -6020,10 +6020,10 @@
       <c r="B35" s="9"/>
       <c r="C35" s="11"/>
       <c r="D35" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>6</v>
@@ -6040,10 +6040,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>6</v>
@@ -6066,10 +6066,10 @@
       <c r="B37" s="9"/>
       <c r="C37" s="11"/>
       <c r="D37" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>6</v>
@@ -6094,17 +6094,17 @@
         <v>64</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="114.75">
@@ -6112,10 +6112,10 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>6</v>
@@ -6138,10 +6138,10 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>6</v>
@@ -6167,7 +6167,7 @@
         <v>90</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>6</v>
@@ -6190,10 +6190,10 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>6</v>
@@ -6216,10 +6216,10 @@
       <c r="B43" s="9"/>
       <c r="C43" s="11"/>
       <c r="D43" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>6</v>
@@ -6242,10 +6242,10 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>6</v>
@@ -6268,10 +6268,10 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>6</v>
@@ -6296,17 +6296,17 @@
         <v>115</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="102">
@@ -6317,7 +6317,7 @@
         <v>47</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>26</v>
@@ -6343,7 +6343,7 @@
         <v>53</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>26</v>
@@ -6371,7 +6371,7 @@
         <v>49</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>26</v>
@@ -6397,7 +6397,7 @@
         <v>63</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>26</v>
@@ -6423,7 +6423,7 @@
         <v>117</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>27</v>
@@ -6448,17 +6448,17 @@
         <v>69</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="102">
@@ -6469,7 +6469,7 @@
         <v>89</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>27</v>
@@ -6495,7 +6495,7 @@
         <v>53</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>27</v>
@@ -6521,7 +6521,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>27</v>
@@ -6544,10 +6544,10 @@
       <c r="B56" s="9"/>
       <c r="C56" s="11"/>
       <c r="D56" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>27</v>
@@ -6570,10 +6570,10 @@
       <c r="B57" s="9"/>
       <c r="C57" s="11"/>
       <c r="D57" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>27</v>
@@ -6596,10 +6596,10 @@
       <c r="B58" s="9"/>
       <c r="C58" s="11"/>
       <c r="D58" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>27</v>
@@ -6622,10 +6622,10 @@
       <c r="B59" s="9"/>
       <c r="C59" s="11"/>
       <c r="D59" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>27</v>
@@ -6647,60 +6647,60 @@
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D60" s="18" t="s">
-        <v>205</v>
-      </c>
       <c r="E60" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="2" customFormat="1" ht="280.5">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="2" customFormat="1" ht="280.5">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>200</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="2" customFormat="1" ht="267.75">
@@ -6708,17 +6708,17 @@
       <c r="B63" s="9"/>
       <c r="C63" s="21"/>
       <c r="D63" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="2" customFormat="1" ht="267.75">
@@ -6726,17 +6726,17 @@
       <c r="B64" s="9"/>
       <c r="C64" s="21"/>
       <c r="D64" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E64" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>208</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -6753,8 +6753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6815,7 +6815,7 @@
         <v>92</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>17</v>
@@ -6830,7 +6830,7 @@
         <v>73</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="89.25">
@@ -6841,7 +6841,7 @@
         <v>93</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>17</v>
@@ -6856,7 +6856,7 @@
         <v>73</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="204">
@@ -6867,7 +6867,7 @@
         <v>94</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>5</v>
@@ -6878,7 +6878,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="89.25">
@@ -6889,7 +6889,7 @@
         <v>74</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>6</v>
@@ -6904,7 +6904,7 @@
         <v>75</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="204">
@@ -6915,7 +6915,7 @@
         <v>119</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>5</v>
@@ -6926,20 +6926,20 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>5</v>
@@ -6950,20 +6950,20 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>5</v>
@@ -6974,20 +6974,20 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>5</v>
@@ -6998,20 +6998,20 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>216</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>5</v>
@@ -7022,20 +7022,20 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>5</v>
@@ -7046,20 +7046,20 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>221</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>5</v>
@@ -7070,20 +7070,20 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>222</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>223</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>5</v>
@@ -7094,20 +7094,20 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>5</v>
@@ -7118,20 +7118,20 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="204">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>226</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>227</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>5</v>
@@ -7142,7 +7142,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="204">
@@ -7150,10 +7150,10 @@
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
       <c r="D16" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>5</v>
@@ -7164,7 +7164,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
